--- a/assignments/zWORK-PRODUCT/codeCompare.xlsx
+++ b/assignments/zWORK-PRODUCT/codeCompare.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sumUserPostLikes" sheetId="1" r:id="rId1"/>
-    <sheet name="addFriend" sheetId="2" r:id="rId2"/>
+    <sheet name="addProperty" sheetId="3" r:id="rId2"/>
+    <sheet name="addFriend" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,8 +28,110 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This doesn't work because objects do not have a length.  An easy way to count the number of properties (or 'keys') in an object are to use the built-in function 'Object.keys()'.  Object.keys() returns an array consisting of the key/value pairs of the object.  An object with 4 properties returns an array with 4 elements.  Each element consists of one key/value pair.
+When                  let obj = {brand : "Fender", stringCount : 4, color : "Blue"};
+then                    Object.keys(obj) 
+evaluates to       [ 'brand', 'stringCount', 'color' ]
+therefore           Object.keys(obj).length 
+evalutes to         3
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The statement 
+         expect(app.addProperty(objDD, 'dollarValue')).to.have.lengthOf(objLength + 1);
+will never work because the return value of the expression 'app.addProperty(objDD, 'dollarValue')' is 'obj' with the property 'dollarValue' appended.  invoking console.log() returns the updated object:
+Original 'obj'
+{ brand: 'Fender',
+  stringCount: 4,
+  color: 'Blue' }
+after invoking 'addProperty()'
+{ brand: 'Fender',
+  stringCount: 4,
+  color: 'Blue',
+  dollarValue: null }
+app.addProperty(obj, 'dollarValue')
+is     an array
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+//declares the varible objLength and sets it to the length of the result produced by the built-in function 'Object.keys()'.  'Object.keys()' returns an array containing the properties of 'objDD'.  The length of this array  is returned when '.length' property is chained to the core method.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>Working</t>
   </si>
@@ -1070,13 +1173,670 @@
   </si>
   <si>
     <t>//OLD</t>
+  </si>
+  <si>
+    <t>//addProperty</t>
+  </si>
+  <si>
+    <r>
+      <t>describe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCB8F76"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'addProperty adds a new property to "obj". The new property should have a value of null.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF72A1BA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>objDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">brand : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCB8F76"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Fender"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">stringCount : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF899C7F"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">color : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCB8F76"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Blue"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCB8F76"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'addProperty adds a new property to "obj" therefore, after invocation, "obj" should have a length equal to original length + 1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <t>// let objLength = Object.keys(objDD).length; // store length of input array for later comparison. Originally put this statement in functions.js which was misguided.</t>
+  </si>
+  <si>
+    <t>// expect(app.addProperty(objDD, 'dollarValue')).to.have.lengthOf(objLength + 1);</t>
+  </si>
+  <si>
+    <r>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF989875"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>addProperty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF72A1BA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>objDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCB8F76"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'dollarValue'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF72A1BA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>objLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF47B7A0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF989875"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>keys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF72A1BA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>objDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF72A1BA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF72A1BA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>objLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF72A1BA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF989875"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>equal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF899C7F"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <r>
+      <t>it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCB8F76"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'addProperty should contain a new property that has a value of null.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(){ </t>
+    </r>
+  </si>
+  <si>
+    <t>//model expect(null).to.be.a('null');</t>
+  </si>
+  <si>
+    <t>// expect(app.addProperty(objDD,'dollarValue'))[3].to.be.a.null;</t>
+  </si>
+  <si>
+    <r>
+      <t>expect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF72A1BA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>objDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF72A1BA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>dollarValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF72A1BA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF72A1BA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF72A1BA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF979797"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>/*-----*/</t>
+  </si>
+  <si>
+    <t>/*
+model &gt; var o = {a:5, b:9, c:2};
+&gt; var objLength = Object.keys(o);
+&gt; objLength
+.. ["a", "b", "c"]
+&gt; objLength.length
+.. 3
+*/</t>
+  </si>
+  <si>
+    <t>This doesn't work because objects do not have a length.  An easy way to count the number of properties (or 'keys') in an object are to use the built-in function 'Object.keys()'.  Object.keys() returns an array consisting of the key/value pairs of the object.  An object with 4 properties returns an array with 4 elements.  Each element consists of one key/value pair.
+When                  let obj = {brand : "Fender", stringCount : 4, color : "Blue"};
+then                    Object.keys(obj) 
+evaluates to       [ 'brand', 'stringCount', 'color' ]
+therefore           Object.keys(obj).length 
+evalutes to         3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The statement 
+         expect(app.addProperty(objDD, 'dollarValue')).to.have.lengthOf(objLength + 1);
+will never work because the return value of the expression 'app.addProperty(objDD, 'dollarValue')' is 'obj' with the property 'dollarValue' appended.  invoking console.log() returns the updated object:
+Original 'obj'
+{ brand: 'Fender',
+  stringCount: 4,
+  color: 'Blue' }
+after invoking 'addProperty()'
+{ brand: 'Fender',
+  stringCount: 4,
+  color: 'Blue',
+  dollarValue: null }
+app.addProperty(obj, 'dollarValue')
+is     an array
+</t>
+  </si>
+  <si>
+    <t>//1.   invokes the function app.addProperty() using 'objDD' as the first argument and 'dollarValue' as the second argument.</t>
+  </si>
+  <si>
+    <t>//declares the varible objLength and sets it to the length of the result produced by the built-in function 'Object.keys()'.  'Object.keys()' returns an array containing the properties of 'objDD'.  The length of this array  is returned when '.length' property is chained to the core method.</t>
+  </si>
+  <si>
+    <t>// the expected result is 4 because the updated object has 1 additional property.</t>
+  </si>
+  <si>
+    <t>// this statement says "expect the 4th array element of the function app.addProperty() to be a null.  THIS IS NONSENSICAL.</t>
+  </si>
+  <si>
+    <t>// the correct statement says expect the 'dollarValue' property of objDD to be null.  THIS MAKES SENSE.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1167,6 +1927,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF608B4E"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF989875"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF979797"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFCB8F76"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF569CD6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF72A1BA"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF899C7F"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF47B7A0"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF608B4E"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1192,7 +2019,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1213,6 +2040,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="9"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1229,6 +2080,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>56445</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1448717</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8128000" y="2568222"/>
+          <a:ext cx="2765778" cy="1448717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1496,7 +2390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1618,6 +2512,166 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="19"/>
+    </row>
+    <row r="11" spans="1:2" ht="139" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+    </row>
+    <row r="18" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
